--- a/datasets/src/test/resources/com/jgrouse/datasets/input/poi/PoiDatasetFactoryTest.xlsx
+++ b/datasets/src/test/resources/com/jgrouse/datasets/input/poi/PoiDatasetFactoryTest.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F7BE8-BC6B-4C9E-89DD-83A540B04A94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F954D1-F6A5-4621-9152-174E6A18B5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="blank sheet" sheetId="3" r:id="rId2"/>
     <sheet name="table_other" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -357,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,8 +410,23 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+11</f>
+        <v>13</v>
+      </c>
+      <c r="B4" t="str">
+        <f>B3 &amp; "moo"</f>
+        <v>barmoo</v>
+      </c>
+      <c r="C4">
+        <f>C3*3</f>
+        <v>13.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -423,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7281EBEC-6912-44EB-9D56-76574BAEFBD4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
